--- a/data/output/Resumen_Pedidos_CONSOLIDADO_15022026.xlsx
+++ b/data/output/Resumen_Pedidos_CONSOLIDADO_15022026.xlsx
@@ -660,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>32</v>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>19</v>
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>14</v>
@@ -880,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>20</v>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>61</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>11</v>

--- a/data/output/Resumen_Pedidos_CONSOLIDADO_15022026.xlsx
+++ b/data/output/Resumen_Pedidos_CONSOLIDADO_15022026.xlsx
@@ -1155,25 +1155,25 @@
         <v>5</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>7</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>13.4</v>
+        <v>17.2</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
